--- a/biology/Botanique/Ribes_rubrum/Ribes_rubrum.xlsx
+++ b/biology/Botanique/Ribes_rubrum/Ribes_rubrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Groseillier à grappes
 Le Groseillier à grappes (Ribes rubrum) est une espèce du genre Ribes (groseillers), de la famille des Grossulariaceae, un arbrisseau qui produit des fruits rouges (groseilles) très appréciés des oiseaux. 
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada français, le fruit du groseillier à grappes est appelé gadelle ; en Suisse romande, raisinet ou raisin de mars[1]. Dans ces deux pays, le terme "groseille" sans précision désigne la groseille à maquereau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada français, le fruit du groseillier à grappes est appelé gadelle ; en Suisse romande, raisinet ou raisin de mars. Dans ces deux pays, le terme "groseille" sans précision désigne la groseille à maquereau.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon les variétés, les fruits peuvent prendre diverses couleurs à maturité.
 Période de floraison : mars, avril
@@ -584,9 +600,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A l'état sauvage, c’est une espèce caractéristique de la frênaie humide (Fraxinion)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'état sauvage, c’est une espèce caractéristique de la frênaie humide (Fraxinion).
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rustique en altitude et dans le Nord, il peut être cultivé dans les préalpes et dans le nord jusqu’à la zone 3 USDA. S’il peut survivre sur un sol médiocre, la production est plus abondante sur un sol frais et entouré d’un paillis de compost puis de tontes de gazon. Il supporte la mi-ombre, mais les fruits sont meilleurs dans une exposition ensoleillée. Il est facile de le multiplier par boutures prélevées à la chute des feuilles[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rustique en altitude et dans le Nord, il peut être cultivé dans les préalpes et dans le nord jusqu’à la zone 3 USDA. S’il peut survivre sur un sol médiocre, la production est plus abondante sur un sol frais et entouré d’un paillis de compost puis de tontes de gazon. Il supporte la mi-ombre, mais les fruits sont meilleurs dans une exposition ensoleillée. Il est facile de le multiplier par boutures prélevées à la chute des feuilles.
 </t>
         </is>
       </c>
